--- a/excel/collective/zestawy_dla_uczniow/zestaw_019.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="304">
   <si>
     <t>ZESTAW ZADAŃ NR 19 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Anna Sikorska</t>
-  </si>
-  <si>
-    <t>Filip Lewandowski</t>
-  </si>
-  <si>
-    <t>Filip Nowak</t>
-  </si>
-  <si>
-    <t>Natalia Urbaniak</t>
-  </si>
-  <si>
-    <t>Jan Wójcik</t>
+    <t>Natalia Wójcik</t>
+  </si>
+  <si>
+    <t>Adam Jankowski</t>
+  </si>
+  <si>
+    <t>Lena Wójcik</t>
+  </si>
+  <si>
+    <t>Emilia Piekarska</t>
+  </si>
+  <si>
+    <t>Hanna Urbaniak</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>5,00</t>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>4,00</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>6,00</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>18,80</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>2,30</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>7,80</t>
   </si>
   <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,20</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>14,30</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>2,50</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>14,70</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>5,90</t>
+    <t>1,00</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,28 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>3,82</t>
+    <t>1,38</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>17,30</t>
+    <t>20,88</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>11,35</t>
+    <t>4,59</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>10,86</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>17,91</t>
+    <t>3,86</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +250,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>17,94</t>
-  </si>
-  <si>
-    <t>29,38</t>
-  </si>
-  <si>
-    <t>14,41</t>
-  </si>
-  <si>
-    <t>18,07</t>
-  </si>
-  <si>
-    <t>18,56</t>
+    <t>7,62</t>
+  </si>
+  <si>
+    <t>26,75</t>
+  </si>
+  <si>
+    <t>26,77</t>
+  </si>
+  <si>
+    <t>3,19</t>
+  </si>
+  <si>
+    <t>29,04</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +271,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>15,73</t>
-  </si>
-  <si>
-    <t>20,82</t>
-  </si>
-  <si>
-    <t>15,55</t>
-  </si>
-  <si>
-    <t>3,81</t>
-  </si>
-  <si>
-    <t>8,94</t>
+    <t>22,77</t>
+  </si>
+  <si>
+    <t>30,97</t>
+  </si>
+  <si>
+    <t>1,98</t>
+  </si>
+  <si>
+    <t>5,54</t>
+  </si>
+  <si>
+    <t>6,90</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,34 +337,40 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Antoni</t>
-  </si>
-  <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
-    <t>Mazur</t>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Kowalczyk</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Szymański</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Kubiak</t>
   </si>
   <si>
     <t>Anna</t>
   </si>
   <si>
-    <t>Sikorska</t>
-  </si>
-  <si>
-    <t>Krawczyk</t>
-  </si>
-  <si>
-    <t>Kowalczyk</t>
-  </si>
-  <si>
-    <t>Rogalska</t>
+    <t>Król</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Maciejewska</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Czarnecka</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -403,127 +406,130 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Hanna Urbaniak</t>
-  </si>
-  <si>
-    <t>10.10.1998</t>
-  </si>
-  <si>
-    <t>2 593,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Maciejewska</t>
-  </si>
-  <si>
-    <t>28.07.1984</t>
-  </si>
-  <si>
-    <t>6 735,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Wojciechowski</t>
-  </si>
-  <si>
-    <t>22.04.1983</t>
-  </si>
-  <si>
-    <t>14 886,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Kaczmarek</t>
-  </si>
-  <si>
-    <t>28.02.1984</t>
-  </si>
-  <si>
-    <t>14 572,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Wójcik</t>
-  </si>
-  <si>
-    <t>02.11.1975</t>
-  </si>
-  <si>
-    <t>8 826,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Kowalczyk</t>
-  </si>
-  <si>
-    <t>07.10.1998</t>
-  </si>
-  <si>
-    <t>10 700,00 zł</t>
-  </si>
-  <si>
-    <t>24.11.1990</t>
-  </si>
-  <si>
-    <t>11 779,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Grabowski</t>
-  </si>
-  <si>
-    <t>08.07.2002</t>
-  </si>
-  <si>
-    <t>4 587,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Czarnecka</t>
-  </si>
-  <si>
-    <t>14.04.1993</t>
-  </si>
-  <si>
-    <t>14 289,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Kwiatkowski</t>
-  </si>
-  <si>
-    <t>16.09.1996</t>
-  </si>
-  <si>
-    <t>7 318,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Rogalska</t>
-  </si>
-  <si>
-    <t>09.10.2005</t>
-  </si>
-  <si>
-    <t>4 344,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Piotrowski</t>
-  </si>
-  <si>
-    <t>16.11.1992</t>
-  </si>
-  <si>
-    <t>9 138,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Wiśniewski</t>
-  </si>
-  <si>
-    <t>11.03.1985</t>
-  </si>
-  <si>
-    <t>9 978,00 zł</t>
-  </si>
-  <si>
     <t>Lena Czarnecka</t>
   </si>
   <si>
-    <t>19.10.1998</t>
-  </si>
-  <si>
-    <t>12 202,00 zł</t>
+    <t>26.07.2003</t>
+  </si>
+  <si>
+    <t>13 213,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Woźniak</t>
+  </si>
+  <si>
+    <t>26.02.1980</t>
+  </si>
+  <si>
+    <t>12 772,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Wilk</t>
+  </si>
+  <si>
+    <t>22.12.2000</t>
+  </si>
+  <si>
+    <t>8 058,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Wójcik</t>
+  </si>
+  <si>
+    <t>28.07.1980</t>
+  </si>
+  <si>
+    <t>13 656,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Wilk</t>
+  </si>
+  <si>
+    <t>20.05.1997</t>
+  </si>
+  <si>
+    <t>5 201,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Wilk</t>
+  </si>
+  <si>
+    <t>05.09.1997</t>
+  </si>
+  <si>
+    <t>6 435,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Górska</t>
+  </si>
+  <si>
+    <t>18.05.1986</t>
+  </si>
+  <si>
+    <t>14 873,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Urbaniak</t>
+  </si>
+  <si>
+    <t>19.09.1984</t>
+  </si>
+  <si>
+    <t>12 444,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Jaworska</t>
+  </si>
+  <si>
+    <t>06.01.2002</t>
+  </si>
+  <si>
+    <t>8 219,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>17.11.1983</t>
+  </si>
+  <si>
+    <t>10 201,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Górska</t>
+  </si>
+  <si>
+    <t>01.01.1996</t>
+  </si>
+  <si>
+    <t>10 824,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Jaworska</t>
+  </si>
+  <si>
+    <t>26.08.1998</t>
+  </si>
+  <si>
+    <t>10 133,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Wiśniewski</t>
+  </si>
+  <si>
+    <t>17.06.1991</t>
+  </si>
+  <si>
+    <t>10 745,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Urbaniak</t>
+  </si>
+  <si>
+    <t>08.05.1977</t>
+  </si>
+  <si>
+    <t>8 231,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -595,325 +601,322 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Styczeń</t>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>1 185,00 zł</t>
+  </si>
+  <si>
+    <t>1 386,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>1 160,00 zł</t>
+  </si>
+  <si>
+    <t>1 404,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>556,00 zł</t>
+  </si>
+  <si>
+    <t>673,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>1 381,00 zł</t>
+  </si>
+  <si>
+    <t>1 892,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 253,00 zł</t>
+  </si>
+  <si>
+    <t>1 453,00 zł</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 306,00 zł</t>
+  </si>
+  <si>
+    <t>1 750,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 340,00 zł</t>
+  </si>
+  <si>
+    <t>1 568,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>744,00 zł</t>
+  </si>
+  <si>
+    <t>952,00 zł</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>1 110,00 zł</t>
+  </si>
+  <si>
+    <t>1 510,00 zł</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>1 186,00 zł</t>
+  </si>
+  <si>
+    <t>1 352,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>926,00 zł</t>
+  </si>
+  <si>
+    <t>1 056,00 zł</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 353,00 zł</t>
+  </si>
+  <si>
+    <t>1 718,00 zł</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
   </si>
   <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 260,00 zł</t>
-  </si>
-  <si>
-    <t>1 411,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
+    <t>532,00 zł</t>
+  </si>
+  <si>
+    <t>713,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>893,00 zł</t>
+  </si>
+  <si>
+    <t>1 009,00 zł</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 336,00 zł</t>
+  </si>
+  <si>
+    <t>1 870,00 zł</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>1 589,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 380,00 zł</t>
+  </si>
+  <si>
+    <t>1 739,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>987,00 zł</t>
+  </si>
+  <si>
+    <t>1 382,00 zł</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>740,00 zł</t>
+  </si>
+  <si>
+    <t>1 006,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>1 044,00 zł</t>
   </si>
   <si>
     <t>1 305,00 zł</t>
   </si>
   <si>
-    <t>1 644,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>752,00 zł</t>
-  </si>
-  <si>
-    <t>917,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>1 190,00 zł</t>
-  </si>
-  <si>
-    <t>1 595,00 zł</t>
+    <t>889,00 zł</t>
+  </si>
+  <si>
+    <t>1 147,00 zł</t>
+  </si>
+  <si>
+    <t>1 292,00 zł</t>
+  </si>
+  <si>
+    <t>1 641,00 zł</t>
+  </si>
+  <si>
+    <t>1 093,00 zł</t>
+  </si>
+  <si>
+    <t>1 224,00 zł</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 164,00 zł</t>
+  </si>
+  <si>
+    <t>1 397,00 zł</t>
+  </si>
+  <si>
+    <t>691,00 zł</t>
+  </si>
+  <si>
+    <t>898,00 zł</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>884,00 zł</t>
+  </si>
+  <si>
+    <t>1 167,00 zł</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 199,00 zł</t>
+  </si>
+  <si>
+    <t>1 619,00 zł</t>
+  </si>
+  <si>
+    <t>1 001,00 zł</t>
+  </si>
+  <si>
+    <t>1 341,00 zł</t>
+  </si>
+  <si>
+    <t>784,00 zł</t>
+  </si>
+  <si>
+    <t>949,00 zł</t>
   </si>
   <si>
     <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>956,00 zł</t>
-  </si>
-  <si>
-    <t>1 176,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>1 468,00 zł</t>
-  </si>
-  <si>
-    <t>1 747,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>1 272,00 zł</t>
-  </si>
-  <si>
-    <t>1 730,00 zł</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 486,00 zł</t>
-  </si>
-  <si>
-    <t>1 664,00 zł</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 010,00 zł</t>
-  </si>
-  <si>
-    <t>1 263,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 161,00 zł</t>
-  </si>
-  <si>
-    <t>1 498,00 zł</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>864,00 zł</t>
-  </si>
-  <si>
-    <t>1 210,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 488,00 zł</t>
-  </si>
-  <si>
-    <t>1 964,00 zł</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 318,00 zł</t>
-  </si>
-  <si>
-    <t>1 819,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 243,00 zł</t>
-  </si>
-  <si>
-    <t>1 417,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 141,00 zł</t>
-  </si>
-  <si>
-    <t>1 267,00 zł</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 078,00 zł</t>
-  </si>
-  <si>
-    <t>1 283,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 242,00 zł</t>
-  </si>
-  <si>
-    <t>1 528,00 zł</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>722,00 zł</t>
-  </si>
-  <si>
-    <t>953,00 zł</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>527,00 zł</t>
-  </si>
-  <si>
-    <t>675,00 zł</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>814,00 zł</t>
-  </si>
-  <si>
-    <t>1 018,00 zł</t>
-  </si>
-  <si>
-    <t>763,00 zł</t>
-  </si>
-  <si>
-    <t>1 068,00 zł</t>
-  </si>
-  <si>
-    <t>1 197,00 zł</t>
-  </si>
-  <si>
-    <t>1 317,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>890,00 zł</t>
-  </si>
-  <si>
-    <t>1 228,00 zł</t>
-  </si>
-  <si>
-    <t>1 368,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>1 447,00 zł</t>
-  </si>
-  <si>
-    <t>1 968,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>524,00 zł</t>
-  </si>
-  <si>
-    <t>608,00 zł</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>554,00 zł</t>
-  </si>
-  <si>
-    <t>737,00 zł</t>
-  </si>
-  <si>
-    <t>631,00 zł</t>
-  </si>
-  <si>
-    <t>694,00 zł</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>1 423,00 zł</t>
-  </si>
-  <si>
-    <t>1 779,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1470,16 +1473,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3">
         <v>6</v>
       </c>
       <c r="D17" s="3">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3">
         <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
@@ -1491,19 +1494,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3">
         <v>6</v>
       </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1512,19 +1515,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
       <c r="D19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3">
         <v>5</v>
       </c>
       <c r="F19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1536,16 +1539,16 @@
         <v>5</v>
       </c>
       <c r="C20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1554,19 +1557,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
         <v>2</v>
-      </c>
-      <c r="C21" s="3">
-        <v>5</v>
       </c>
       <c r="D21" s="3">
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1575,16 +1578,16 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
         <v>3</v>
@@ -1596,19 +1599,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>2</v>
       </c>
-      <c r="C23" s="3">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3</v>
-      </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1617,19 +1620,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
         <v>6</v>
       </c>
-      <c r="C24" s="3">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3">
-        <v>6</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>6</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1638,13 +1641,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E25" s="3">
         <v>4</v>
@@ -1659,19 +1662,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
         <v>3</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
       </c>
       <c r="F26" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1680,16 +1683,16 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>2</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3</v>
       </c>
       <c r="F27" s="3">
         <v>3</v>
@@ -1701,19 +1704,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
         <v>6</v>
-      </c>
-      <c r="C28" s="3">
-        <v>5</v>
-      </c>
-      <c r="D28" s="3">
-        <v>4</v>
       </c>
       <c r="E28" s="3">
         <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1835,7 +1838,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1850,7 +1853,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1865,7 +1868,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1880,7 +1883,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1895,7 +1898,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1910,7 +1913,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2027,7 +2030,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2039,7 +2042,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2051,7 +2054,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2060,19 +2063,19 @@
         <v>71</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C18" s="3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C19" s="3">
         <v>24</v>
@@ -2083,7 +2086,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -2095,7 +2098,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2120,7 +2123,7 @@
         <v>65</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="3">
         <v>42</v>
@@ -2132,10 +2135,10 @@
         <v>67</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2144,10 +2147,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="3">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2156,22 +2159,22 @@
         <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2179,7 +2182,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -2191,7 +2194,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2216,10 +2219,10 @@
         <v>65</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2228,10 +2231,10 @@
         <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2240,10 +2243,10 @@
         <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="3">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2252,34 +2255,34 @@
         <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="3">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D40" s="7"/>
     </row>
@@ -2301,10 +2304,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A19" sqref="A19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2325,53 +2328,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
@@ -2383,7 +2386,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>24</v>
@@ -2392,40 +2395,40 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="L11" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
         <v>6</v>
-      </c>
-      <c r="I12" s="3">
-        <v>5</v>
       </c>
       <c r="J12" s="3">
         <v>3</v>
@@ -2436,10 +2439,10 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -2451,16 +2454,16 @@
         <v>2</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" s="3">
         <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2468,7 +2471,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>110</v>
@@ -2477,22 +2480,22 @@
         <v>6</v>
       </c>
       <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>6</v>
       </c>
-      <c r="F14" s="3">
-        <v>5</v>
-      </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2509,10 +2512,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -2521,10 +2524,10 @@
         <v>4</v>
       </c>
       <c r="I15" s="3">
+        <v>6</v>
+      </c>
+      <c r="J15" s="3">
         <v>4</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2532,31 +2535,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
         <v>5</v>
       </c>
-      <c r="F16" s="3">
-        <v>4</v>
-      </c>
       <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5</v>
+      </c>
+      <c r="I16" s="3">
         <v>6</v>
       </c>
-      <c r="H16" s="3">
-        <v>6</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>5</v>
-      </c>
-      <c r="J16" s="3">
-        <v>6</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2564,70 +2567,54 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
         <v>5</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4</v>
       </c>
       <c r="H17" s="3">
         <v>4</v>
       </c>
       <c r="I17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="3">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="A18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2641,27 +2628,11 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="D19:L19"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2689,7 +2660,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2699,221 +2670,221 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2950,7 +2921,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2960,75 +2931,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3036,22 +3007,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3059,22 +3030,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3082,22 +3053,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3105,22 +3076,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3128,22 +3099,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3151,22 +3122,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3174,22 +3145,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3197,22 +3168,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3220,19 +3191,19 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>234</v>
@@ -3243,22 +3214,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="G25" s="3" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3266,22 +3237,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3289,22 +3260,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3312,7 +3283,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>246</v>
@@ -3327,7 +3298,7 @@
         <v>249</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3335,10 +3306,10 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>251</v>
@@ -3347,7 +3318,7 @@
         <v>252</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>253</v>
@@ -3358,22 +3329,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3381,13 +3352,13 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>259</v>
@@ -3396,7 +3367,7 @@
         <v>260</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3404,22 +3375,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3427,22 +3398,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3450,22 +3421,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3473,22 +3444,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3496,22 +3467,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3519,22 +3490,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3542,22 +3513,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3565,22 +3536,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3588,22 +3559,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>286</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3611,22 +3582,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3634,22 +3605,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>283</v>
+        <v>197</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3657,22 +3628,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3680,10 +3651,10 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>295</v>
+        <v>194</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>296</v>
@@ -3692,55 +3663,55 @@
         <v>297</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_019.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
   <si>
     <t>ZESTAW ZADAŃ NR 19 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 19 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>4,00</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>6,00</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>18,80</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,30</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>7,80</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,00</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,72 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>1,38</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>20,88</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>4,59</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>3,86</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>7,62</t>
-  </si>
-  <si>
-    <t>26,75</t>
-  </si>
-  <si>
-    <t>26,77</t>
-  </si>
-  <si>
-    <t>3,19</t>
-  </si>
-  <si>
-    <t>29,04</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>22,77</t>
-  </si>
-  <si>
-    <t>30,97</t>
-  </si>
-  <si>
-    <t>1,98</t>
-  </si>
-  <si>
-    <t>5,54</t>
-  </si>
-  <si>
-    <t>6,90</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -304,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -412,126 +337,84 @@
     <t>26.07.2003</t>
   </si>
   <si>
-    <t>13 213,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Woźniak</t>
   </si>
   <si>
     <t>26.02.1980</t>
   </si>
   <si>
-    <t>12 772,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Wilk</t>
   </si>
   <si>
     <t>22.12.2000</t>
   </si>
   <si>
-    <t>8 058,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Wójcik</t>
   </si>
   <si>
     <t>28.07.1980</t>
   </si>
   <si>
-    <t>13 656,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Wilk</t>
   </si>
   <si>
     <t>20.05.1997</t>
   </si>
   <si>
-    <t>5 201,00 zł</t>
-  </si>
-  <si>
     <t>Lena Wilk</t>
   </si>
   <si>
     <t>05.09.1997</t>
   </si>
   <si>
-    <t>6 435,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Górska</t>
   </si>
   <si>
     <t>18.05.1986</t>
   </si>
   <si>
-    <t>14 873,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Urbaniak</t>
   </si>
   <si>
     <t>19.09.1984</t>
   </si>
   <si>
-    <t>12 444,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Jaworska</t>
   </si>
   <si>
     <t>06.01.2002</t>
   </si>
   <si>
-    <t>8 219,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
     <t>17.11.1983</t>
   </si>
   <si>
-    <t>10 201,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Górska</t>
   </si>
   <si>
     <t>01.01.1996</t>
   </si>
   <si>
-    <t>10 824,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Jaworska</t>
   </si>
   <si>
     <t>26.08.1998</t>
   </si>
   <si>
-    <t>10 133,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Wiśniewski</t>
   </si>
   <si>
     <t>17.06.1991</t>
   </si>
   <si>
-    <t>10 745,00 zł</t>
-  </si>
-  <si>
     <t>Maja Urbaniak</t>
   </si>
   <si>
     <t>08.05.1977</t>
   </si>
   <si>
-    <t>8 231,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -544,9 +427,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -607,12 +487,6 @@
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 185,00 zł</t>
-  </si>
-  <si>
-    <t>1 386,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -622,12 +496,6 @@
     <t>luty</t>
   </si>
   <si>
-    <t>1 160,00 zł</t>
-  </si>
-  <si>
-    <t>1 404,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -640,12 +508,6 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>556,00 zł</t>
-  </si>
-  <si>
-    <t>673,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -658,36 +520,18 @@
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 381,00 zł</t>
-  </si>
-  <si>
-    <t>1 892,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 253,00 zł</t>
-  </si>
-  <si>
-    <t>1 453,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 306,00 zł</t>
-  </si>
-  <si>
-    <t>1 750,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -697,42 +541,18 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 340,00 zł</t>
-  </si>
-  <si>
-    <t>1 568,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
     <t>czerwiec</t>
   </si>
   <si>
-    <t>744,00 zł</t>
-  </si>
-  <si>
-    <t>952,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>1 110,00 zł</t>
-  </si>
-  <si>
-    <t>1 510,00 zł</t>
-  </si>
-  <si>
     <t>podkarpackie</t>
   </si>
   <si>
-    <t>1 186,00 zł</t>
-  </si>
-  <si>
-    <t>1 352,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -742,45 +562,21 @@
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>926,00 zł</t>
-  </si>
-  <si>
-    <t>1 056,00 zł</t>
-  </si>
-  <si>
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 353,00 zł</t>
-  </si>
-  <si>
-    <t>1 718,00 zł</t>
-  </si>
-  <si>
     <t>łódzkie</t>
   </si>
   <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>532,00 zł</t>
-  </si>
-  <si>
-    <t>713,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
-    <t>893,00 zł</t>
-  </si>
-  <si>
-    <t>1 009,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
@@ -790,18 +586,9 @@
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 336,00 zł</t>
-  </si>
-  <si>
-    <t>1 870,00 zł</t>
-  </si>
-  <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 589,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -811,109 +598,31 @@
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 380,00 zł</t>
-  </si>
-  <si>
-    <t>1 739,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>dolnośląskie</t>
   </si>
   <si>
-    <t>987,00 zł</t>
-  </si>
-  <si>
-    <t>1 382,00 zł</t>
-  </si>
-  <si>
     <t>opolskie</t>
   </si>
   <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>740,00 zł</t>
-  </si>
-  <si>
-    <t>1 006,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
-    <t>1 044,00 zł</t>
-  </si>
-  <si>
-    <t>1 305,00 zł</t>
-  </si>
-  <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>889,00 zł</t>
-  </si>
-  <si>
-    <t>1 147,00 zł</t>
-  </si>
-  <si>
-    <t>1 292,00 zł</t>
-  </si>
-  <si>
-    <t>1 641,00 zł</t>
-  </si>
-  <si>
-    <t>1 093,00 zł</t>
-  </si>
-  <si>
-    <t>1 224,00 zł</t>
-  </si>
-  <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 164,00 zł</t>
-  </si>
-  <si>
-    <t>1 397,00 zł</t>
-  </si>
-  <si>
-    <t>691,00 zł</t>
-  </si>
-  <si>
-    <t>898,00 zł</t>
-  </si>
-  <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>884,00 zł</t>
-  </si>
-  <si>
-    <t>1 167,00 zł</t>
-  </si>
-  <si>
     <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 199,00 zł</t>
-  </si>
-  <si>
-    <t>1 619,00 zł</t>
-  </si>
-  <si>
-    <t>1 001,00 zł</t>
-  </si>
-  <si>
-    <t>1 341,00 zł</t>
-  </si>
-  <si>
-    <t>784,00 zł</t>
-  </si>
-  <si>
-    <t>949,00 zł</t>
   </si>
   <si>
     <t>Andrzej Woźniak</t>
@@ -938,7 +647,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -995,14 +706,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1013,8 +724,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1045,30 +756,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1371,7 +1083,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1446,25 +1158,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1487,7 +1199,7 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1508,7 +1220,7 @@
       <c r="F18" s="3">
         <v>4</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1529,7 +1241,7 @@
       <c r="F19" s="3">
         <v>5</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1550,7 +1262,7 @@
       <c r="F20" s="3">
         <v>3</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1571,7 +1283,7 @@
       <c r="F21" s="3">
         <v>4</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1592,7 +1304,7 @@
       <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1613,7 +1325,7 @@
       <c r="F23" s="3">
         <v>4</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1634,7 +1346,7 @@
       <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1655,7 +1367,7 @@
       <c r="F25" s="3">
         <v>4</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1676,7 +1388,7 @@
       <c r="F26" s="3">
         <v>2</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1697,7 +1409,7 @@
       <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1718,27 +1430,17 @@
       <c r="F28" s="3">
         <v>4</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1772,7 +1474,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1792,7 +1494,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1802,29 +1504,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1832,99 +1534,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>6</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>18.8</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2.3</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>7.8</v>
       </c>
       <c r="D17" s="3">
         <v>7</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
       </c>
       <c r="D18" s="3">
         <v>8</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1957,7 +1659,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1982,113 +1684,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1.38</v>
       </c>
       <c r="C15" s="3">
         <v>28</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>20.88</v>
       </c>
       <c r="C16" s="3">
         <v>21</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>4.59</v>
       </c>
       <c r="C17" s="3">
         <v>17</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>20.88</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3.86</v>
       </c>
       <c r="C19" s="3">
         <v>24</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2097,94 +1799,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>75</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>7.62</v>
       </c>
       <c r="C24" s="3">
         <v>42</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>26.75</v>
       </c>
       <c r="C25" s="3">
         <v>37</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>26.77</v>
       </c>
       <c r="C26" s="3">
         <v>14</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>3.19</v>
       </c>
       <c r="C27" s="3">
         <v>7</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>29.039999999999999</v>
       </c>
       <c r="C28" s="3">
         <v>47</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2193,98 +1895,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>82</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>22.77</v>
       </c>
       <c r="C33" s="3">
         <v>18</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>30.97</v>
       </c>
       <c r="C34" s="3">
         <v>9</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1.98</v>
       </c>
       <c r="C35" s="3">
         <v>5</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>5.54</v>
       </c>
       <c r="C36" s="3">
         <v>41</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>6.9</v>
       </c>
       <c r="C37" s="3">
         <v>26</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2307,7 +2009,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A19" sqref="A19:L19"/>
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2327,90 +2029,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>90</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>104</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -2433,16 +2135,16 @@
       <c r="J12" s="3">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -2465,16 +2167,16 @@
       <c r="J13" s="3">
         <v>4</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
@@ -2497,16 +2199,16 @@
       <c r="J14" s="3">
         <v>4</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
@@ -2529,16 +2231,16 @@
       <c r="J15" s="3">
         <v>4</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
@@ -2561,16 +2263,16 @@
       <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
@@ -2593,40 +2295,40 @@
       <c r="J17" s="3">
         <v>5</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2659,233 +2361,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>119</v>
+      <c r="A1" s="15" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>127</v>
+      <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>104</v>
+      </c>
+      <c r="C11" s="7">
+        <v>13213</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="C12" s="7">
+        <v>12772</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="C13" s="7">
+        <v>8058</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="C14" s="7">
+        <v>13656</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5201</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6435</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
+      </c>
+      <c r="C17" s="7">
+        <v>14873</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
+      </c>
+      <c r="C18" s="7">
+        <v>12444</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
+      </c>
+      <c r="C19" s="7">
+        <v>8219</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="C20" s="7">
+        <v>10201</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
+      </c>
+      <c r="C21" s="7">
+        <v>10824</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
+      </c>
+      <c r="C22" s="7">
+        <v>10133</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
+      </c>
+      <c r="C23" s="7">
+        <v>10745</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>169</v>
+        <v>130</v>
+      </c>
+      <c r="C24" s="7">
+        <v>8231</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
-        <v>170</v>
+      <c r="A27" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2920,86 +2616,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>175</v>
+      <c r="A1" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>192</v>
+      <c r="A15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3007,22 +2703,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1185</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1386</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3030,22 +2726,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>201</v>
+        <v>154</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1160</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1404</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3053,22 +2749,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>207</v>
+        <v>161</v>
+      </c>
+      <c r="D18" s="7">
+        <v>556</v>
+      </c>
+      <c r="E18" s="7">
+        <v>673</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3076,22 +2772,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>213</v>
+        <v>165</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1381</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1892</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3099,22 +2795,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>217</v>
+        <v>167</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1253</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1453</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3122,22 +2818,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1306</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1750</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3145,22 +2841,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1340</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1568</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3168,22 +2864,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>230</v>
+        <v>172</v>
+      </c>
+      <c r="D23" s="7">
+        <v>744</v>
+      </c>
+      <c r="E23" s="7">
+        <v>952</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3191,22 +2887,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>233</v>
+        <v>165</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1110</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1510</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3214,22 +2910,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>236</v>
+        <v>161</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1186</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1352</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3237,22 +2933,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>241</v>
+        <v>179</v>
+      </c>
+      <c r="D26" s="7">
+        <v>926</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1056</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3260,22 +2956,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>244</v>
+        <v>180</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1353</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1718</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3283,22 +2979,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>248</v>
+        <v>182</v>
+      </c>
+      <c r="D28" s="7">
+        <v>532</v>
+      </c>
+      <c r="E28" s="7">
+        <v>713</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3306,22 +3002,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>252</v>
+        <v>180</v>
+      </c>
+      <c r="D29" s="7">
+        <v>893</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1009</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>253</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3329,22 +3025,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>257</v>
+        <v>187</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1336</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1870</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3352,22 +3048,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>259</v>
+        <v>188</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1160</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1589</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3375,22 +3071,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>264</v>
+        <v>191</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1380</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1739</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3398,22 +3094,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>268</v>
+        <v>169</v>
+      </c>
+      <c r="D33" s="7">
+        <v>987</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1382</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3421,22 +3117,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>272</v>
+        <v>195</v>
+      </c>
+      <c r="D34" s="7">
+        <v>740</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1006</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3444,22 +3140,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>275</v>
+        <v>169</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1044</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1305</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3467,22 +3163,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>278</v>
+        <v>197</v>
+      </c>
+      <c r="D36" s="7">
+        <v>889</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1147</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3490,22 +3186,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>280</v>
+        <v>165</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1292</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1641</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3513,22 +3209,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>282</v>
+        <v>191</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1093</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1224</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3536,22 +3232,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>285</v>
+        <v>198</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1164</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1397</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3559,22 +3255,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>287</v>
+        <v>180</v>
+      </c>
+      <c r="D40" s="7">
+        <v>691</v>
+      </c>
+      <c r="E40" s="7">
+        <v>898</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3582,22 +3278,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>290</v>
+        <v>199</v>
+      </c>
+      <c r="D41" s="7">
+        <v>884</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1167</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3605,22 +3301,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>293</v>
+        <v>200</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1199</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1619</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3628,22 +3324,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>295</v>
+        <v>191</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1001</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1341</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3651,68 +3347,58 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>297</v>
+        <v>154</v>
+      </c>
+      <c r="D44" s="7">
+        <v>784</v>
+      </c>
+      <c r="E44" s="7">
+        <v>949</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>298</v>
+        <v>201</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
-        <v>170</v>
+      <c r="A47" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>299</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>300</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>301</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>302</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>303</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B52" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_019.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_019.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>ZESTAW ZADAŃ NR 19 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Natalia Wójcik</t>
-  </si>
-  <si>
-    <t>Adam Jankowski</t>
-  </si>
-  <si>
-    <t>Lena Wójcik</t>
-  </si>
-  <si>
-    <t>Emilia Piekarska</t>
-  </si>
-  <si>
-    <t>Hanna Urbaniak</t>
+    <t>Anna Olszewska</t>
+  </si>
+  <si>
+    <t>Jan Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Hanna Olszewska</t>
+  </si>
+  <si>
+    <t>Adam Krawczyk</t>
+  </si>
+  <si>
+    <t>Filip Mazur</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 19 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,24 +149,24 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>Temperówka</t>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
   </si>
   <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,42 +266,51 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Kozłowski</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Wojciechowski</t>
   </si>
   <si>
     <t>Filip</t>
   </si>
   <si>
-    <t>Kowalczyk</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Szymański</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Kubiak</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Król</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Maciejewska</t>
+    <t>Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
   </si>
   <si>
     <t>Amelia</t>
   </si>
   <si>
+    <t>Rogalska</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
     <t>Czarnecka</t>
   </si>
   <si>
@@ -331,88 +347,37 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Lena Czarnecka</t>
-  </si>
-  <si>
-    <t>26.07.2003</t>
-  </si>
-  <si>
-    <t>Aleksander Woźniak</t>
-  </si>
-  <si>
-    <t>26.02.1980</t>
-  </si>
-  <si>
-    <t>Emilia Wilk</t>
-  </si>
-  <si>
-    <t>22.12.2000</t>
-  </si>
-  <si>
-    <t>Kacper Wójcik</t>
-  </si>
-  <si>
-    <t>28.07.1980</t>
-  </si>
-  <si>
-    <t>Zuzanna Wilk</t>
-  </si>
-  <si>
-    <t>20.05.1997</t>
-  </si>
-  <si>
-    <t>Lena Wilk</t>
-  </si>
-  <si>
-    <t>05.09.1997</t>
-  </si>
-  <si>
-    <t>Zuzanna Górska</t>
-  </si>
-  <si>
-    <t>18.05.1986</t>
-  </si>
-  <si>
-    <t>Amelia Urbaniak</t>
-  </si>
-  <si>
-    <t>19.09.1984</t>
-  </si>
-  <si>
-    <t>Emilia Jaworska</t>
-  </si>
-  <si>
-    <t>06.01.2002</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>17.11.1983</t>
-  </si>
-  <si>
-    <t>Hanna Górska</t>
-  </si>
-  <si>
-    <t>01.01.1996</t>
-  </si>
-  <si>
-    <t>Hanna Jaworska</t>
-  </si>
-  <si>
-    <t>26.08.1998</t>
-  </si>
-  <si>
-    <t>Jakub Wiśniewski</t>
-  </si>
-  <si>
-    <t>17.06.1991</t>
+    <t>Natalia Rogalska</t>
+  </si>
+  <si>
+    <t>Natalia Maciejewska</t>
+  </si>
+  <si>
+    <t>Hanna Rogalska</t>
   </si>
   <si>
     <t>Maja Urbaniak</t>
   </si>
   <si>
-    <t>08.05.1977</t>
+    <t>Kacper Wojciechowski</t>
+  </si>
+  <si>
+    <t>Hanna Malinowska</t>
+  </si>
+  <si>
+    <t>Wojciech Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Adam Wiśniewski</t>
+  </si>
+  <si>
+    <t>Amelia Rogalska</t>
+  </si>
+  <si>
+    <t>Aleksander Dąbrowski</t>
+  </si>
+  <si>
+    <t>Jan Dąbrowski</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -427,7 +392,73 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Anna Piekarska</t>
+  </si>
+  <si>
+    <t>Natalia Sikorska</t>
+  </si>
+  <si>
+    <t>Zuzanna Sikorska</t>
+  </si>
+  <si>
+    <t>Jakub Kaczmarek</t>
+  </si>
+  <si>
+    <t>Maja Wójcik</t>
+  </si>
+  <si>
+    <t>Kacper Lewandowski</t>
+  </si>
+  <si>
+    <t>Kacper Kowalczyk</t>
+  </si>
+  <si>
+    <t>Jakub Jankowski</t>
+  </si>
+  <si>
+    <t>Jan Szymański</t>
+  </si>
+  <si>
+    <t>Oliwia Piekarska</t>
+  </si>
+  <si>
+    <t>Hanna Borkowska</t>
+  </si>
+  <si>
+    <t>Hanna Zawadzka</t>
+  </si>
+  <si>
+    <t>Mikołaj Wojciechowski</t>
+  </si>
+  <si>
+    <t>Adam Wojciechowski</t>
+  </si>
+  <si>
+    <t>Emilia Maciejewska</t>
+  </si>
+  <si>
+    <t>Emilia Borkowska</t>
+  </si>
+  <si>
+    <t>Natalia Borkowska</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -484,148 +515,136 @@
     <t>maj</t>
   </si>
   <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
     <t>Karta graficzna RTX</t>
   </si>
   <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
   </si>
   <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
     <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -697,7 +716,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,12 +739,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -756,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -767,13 +780,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1080,7 +1092,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1185,19 +1197,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
         <v>4</v>
-      </c>
-      <c r="C17" s="3">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3">
-        <v>6</v>
       </c>
       <c r="E17" s="3">
         <v>4</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1206,16 +1218,16 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
       </c>
       <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
         <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6</v>
       </c>
       <c r="F18" s="3">
         <v>4</v>
@@ -1227,19 +1239,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
         <v>4</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1248,7 +1260,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -1269,16 +1281,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="3">
         <v>4</v>
@@ -1290,16 +1302,16 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
         <v>4</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>6</v>
       </c>
-      <c r="D22" s="3">
-        <v>4</v>
-      </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22" s="3">
         <v>3</v>
@@ -1311,19 +1323,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3">
         <v>6</v>
       </c>
       <c r="D23" s="3">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>4</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1332,19 +1344,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3">
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1353,19 +1365,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="C25" s="3">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>2</v>
       </c>
-      <c r="E25" s="3">
-        <v>4</v>
-      </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1374,19 +1386,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
         <v>6</v>
       </c>
-      <c r="C26" s="3">
-        <v>5</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
         <v>3</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1395,19 +1407,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3">
         <v>4</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3</v>
-      </c>
-      <c r="D27" s="3">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1416,10 +1428,10 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
         <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2</v>
       </c>
       <c r="D28" s="3">
         <v>6</v>
@@ -1428,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1441,6 +1453,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1474,7 +1492,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1494,7 +1512,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1504,29 +1522,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1534,99 +1552,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>10.2</v>
+      </c>
+      <c r="D13" s="3">
         <v>4</v>
       </c>
-      <c r="D13" s="3">
-        <v>6</v>
-      </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2.7</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>18.8</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>21.9</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2.3</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.8</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>7.8</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.7</v>
       </c>
       <c r="D17" s="3">
-        <v>7</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5.4</v>
       </c>
       <c r="D18" s="3">
-        <v>8</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1643,10 +1661,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1659,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1684,27 +1702,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1712,85 +1730,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1.38</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>20.030000000000001</v>
       </c>
       <c r="C15" s="3">
-        <v>28</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>20.88</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>16.46</v>
       </c>
       <c r="C16" s="3">
-        <v>21</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>4.59</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1.52</v>
       </c>
       <c r="C17" s="3">
-        <v>17</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>20.88</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>9.99</v>
       </c>
       <c r="C18" s="3">
-        <v>5</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>3.86</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>28.84</v>
       </c>
       <c r="C19" s="3">
-        <v>24</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1799,8 +1817,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1808,85 +1826,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>7.62</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1.73</v>
       </c>
       <c r="C24" s="3">
-        <v>42</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>26.75</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>20.92</v>
       </c>
       <c r="C25" s="3">
-        <v>37</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>26.77</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>24.73</v>
       </c>
       <c r="C26" s="3">
-        <v>14</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>3.19</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>26.16</v>
       </c>
       <c r="C27" s="3">
-        <v>7</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>29.039999999999999</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>27.41</v>
       </c>
       <c r="C28" s="3">
         <v>47</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1895,8 +1913,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1904,89 +1922,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>22.77</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>19.32</v>
       </c>
       <c r="C33" s="3">
-        <v>18</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>30.97</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>6.42</v>
       </c>
       <c r="C34" s="3">
-        <v>9</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>1.98</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>19.61</v>
       </c>
       <c r="C35" s="3">
-        <v>5</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>5.54</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>26.98</v>
       </c>
       <c r="C36" s="3">
-        <v>41</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>6.9</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>11.44</v>
       </c>
       <c r="C37" s="3">
-        <v>26</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2006,10 +2032,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L19"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2029,108 +2055,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3">
         <v>3</v>
@@ -2141,28 +2167,28 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
       <c r="F13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3">
         <v>4</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="3">
         <v>4</v>
@@ -2173,31 +2199,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H14" s="3">
         <v>6</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2205,28 +2231,28 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2</v>
       </c>
-      <c r="H15" s="3">
-        <v>4</v>
-      </c>
       <c r="I15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3">
         <v>4</v>
@@ -2237,31 +2263,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
       </c>
       <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
         <v>2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>5</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
       </c>
       <c r="H16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2269,72 +2295,136 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H17" s="3">
         <v>4</v>
       </c>
       <c r="I17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
+        <v>6</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3">
+        <v>6</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2347,10 +2437,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A28" sqref="A28:B30"/>
+      <selection activeCell="A26" sqref="A26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2361,227 +2451,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>94</v>
+      <c r="A1" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="7">
-        <v>13213</v>
+        <v>108</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3754</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="7">
-        <v>12772</v>
+        <v>109</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C12" s="8">
+        <v>7613</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="7">
-        <v>8058</v>
+        <v>110</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C13" s="8">
+        <v>11405</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="7">
-        <v>13656</v>
+        <v>111</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4630</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="7">
-        <v>5201</v>
+      <c r="B15" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C15" s="8">
+        <v>9648</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="7">
-        <v>6435</v>
+      <c r="B16" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C16" s="8">
+        <v>13956</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="7">
-        <v>14873</v>
+        <v>108</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C17" s="8">
+        <v>10564</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="7">
-        <v>12444</v>
+        <v>114</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C18" s="8">
+        <v>7551</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="7">
-        <v>8219</v>
+        <v>115</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C19" s="8">
+        <v>5246</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="7">
-        <v>10201</v>
+        <v>116</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C20" s="8">
+        <v>11820</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="7">
-        <v>10824</v>
+        <v>117</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3168</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="7">
-        <v>10133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="7">
-        <v>10745</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="7">
-        <v>8231</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C22" s="8">
+        <v>10546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="17" t="s">
-        <v>131</v>
-      </c>
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="B28" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2598,10 +2666,239 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A10" sqref="A10:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="3">
+        <v>195</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="3">
+        <v>96</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="3">
+        <v>107</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="3">
+        <v>152</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="3">
+        <v>105</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="3">
+        <v>135</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3">
+        <v>117</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="3">
+        <v>124</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="3">
+        <v>91</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="3">
+        <v>177</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="3">
+        <v>90</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="3">
+        <v>135</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="3">
+        <v>99</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="3">
+        <v>112</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="3">
+        <v>155</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="3">
+        <v>151</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="3">
+        <v>131</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="3">
+        <v>139</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A45" sqref="A45:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2616,86 +2913,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>135</v>
+      <c r="A1" s="14" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2703,22 +3000,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1185</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1386</v>
+        <v>164</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1087</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1413</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2726,22 +3023,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1160</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1404</v>
+        <v>168</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1305</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1553</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2749,22 +3046,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="7">
-        <v>556</v>
-      </c>
-      <c r="E18" s="7">
-        <v>673</v>
+        <v>172</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1258</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1598</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2772,22 +3069,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1381</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1892</v>
+        <v>176</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1216</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1654</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2795,22 +3092,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1253</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1453</v>
+      <c r="D20" s="8">
+        <v>554</v>
+      </c>
+      <c r="E20" s="8">
+        <v>704</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2818,22 +3115,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1306</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1750</v>
+        <v>164</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1464</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2050</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2841,22 +3138,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1340</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1568</v>
+        <v>183</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1436</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1637</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2864,22 +3161,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="7">
-        <v>744</v>
-      </c>
-      <c r="E23" s="7">
-        <v>952</v>
+        <v>186</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1173</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1314</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2887,22 +3184,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1110</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1510</v>
+        <v>186</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1222</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1589</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2910,22 +3207,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1186</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1352</v>
+        <v>189</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1052</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1262</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>177</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2933,22 +3230,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="7">
-        <v>926</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1056</v>
+        <v>190</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1356</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1844</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2956,22 +3253,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1353</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1718</v>
+        <v>192</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1132</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1370</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2979,22 +3276,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="7">
-        <v>532</v>
-      </c>
-      <c r="E28" s="7">
-        <v>713</v>
+        <v>194</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1221</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1709</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3002,22 +3299,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1322</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1719</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="D29" s="7">
-        <v>893</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1009</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3025,22 +3322,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1336</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1870</v>
+        <v>183</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1490</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1952</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3048,22 +3345,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1160</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1589</v>
+        <v>164</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1210</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1549</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3071,22 +3368,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1380</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1739</v>
+        <v>198</v>
+      </c>
+      <c r="D32" s="8">
+        <v>974</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1081</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3094,22 +3391,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="7">
-        <v>987</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1382</v>
+        <v>199</v>
+      </c>
+      <c r="D33" s="8">
+        <v>611</v>
+      </c>
+      <c r="E33" s="8">
+        <v>678</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3117,22 +3414,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D34" s="7">
-        <v>740</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1006</v>
+        <v>164</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1141</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1369</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3140,22 +3437,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1044</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1305</v>
+        <v>172</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1458</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1954</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3163,22 +3460,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36" s="7">
-        <v>889</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1147</v>
+        <v>164</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1352</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1798</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3186,22 +3483,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1292</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1641</v>
+        <v>203</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1476</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1948</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3209,22 +3506,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1093</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1224</v>
+        <v>172</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1013</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1337</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3232,22 +3529,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1164</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1397</v>
+        <v>192</v>
+      </c>
+      <c r="D39" s="8">
+        <v>814</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1034</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3255,22 +3552,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" s="7">
-        <v>691</v>
-      </c>
-      <c r="E40" s="7">
-        <v>898</v>
+        <v>190</v>
+      </c>
+      <c r="D40" s="8">
+        <v>826</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1074</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3278,127 +3575,58 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D41" s="7">
-        <v>884</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1167</v>
+        <v>207</v>
+      </c>
+      <c r="D41" s="8">
+        <v>927</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1168</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D42" s="7">
-        <v>1199</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1619</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1001</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1341</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="7">
-        <v>784</v>
-      </c>
-      <c r="E44" s="7">
-        <v>949</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>159</v>
-      </c>
+      <c r="A44" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="17" t="s">
-        <v>131</v>
-      </c>
+      <c r="A47" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>202</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>203</v>
-      </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>204</v>
-      </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>205</v>
-      </c>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>206</v>
-      </c>
-      <c r="B52" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
